--- a/posesiones/1485981.xlsx
+++ b/posesiones/1485981.xlsx
@@ -2078,10 +2078,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2416,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2466,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R11">
         <v>20</v>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2616,7 +2616,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R14">
         <v>4</v>
@@ -2669,7 +2669,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R15">
         <v>11</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2769,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R17">
         <v>14</v>
@@ -2822,7 +2822,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R18">
         <v>18</v>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2925,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R20">
         <v>8</v>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -3072,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R23">
         <v>21</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3175,7 +3175,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R25">
         <v>11</v>
@@ -3225,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3322,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -3372,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3472,7 +3472,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R31">
         <v>31</v>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3572,7 +3572,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R33">
         <v>12</v>
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3716,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3813,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R38">
         <v>5</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3916,7 +3916,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R40">
         <v>18</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -4016,7 +4016,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R42">
         <v>25</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4160,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4304,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R48">
         <v>30</v>
@@ -4357,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4407,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R50">
         <v>11</v>
@@ -4457,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4504,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4551,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4598,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4645,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4695,7 +4695,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R56">
         <v>24</v>
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4839,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4930,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -5027,7 +5027,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R63">
         <v>0</v>
@@ -5077,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5124,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5218,7 +5218,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5265,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5312,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R70">
         <v>17</v>
@@ -5415,7 +5415,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R71">
         <v>14</v>
@@ -5468,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5518,7 +5518,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R73">
         <v>15</v>
@@ -5571,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5621,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R75">
         <v>6</v>
@@ -5671,7 +5671,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5718,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5818,7 +5818,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R79">
         <v>16</v>
@@ -5871,7 +5871,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R80">
         <v>19</v>
@@ -5924,7 +5924,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R81">
         <v>21</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -6021,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -6068,7 +6068,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -6115,7 +6115,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6162,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6209,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6256,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6306,7 +6306,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R89">
         <v>14</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6406,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6456,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6603,7 +6603,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R95">
         <v>31</v>
@@ -6656,7 +6656,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R96">
         <v>9</v>
@@ -6706,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6753,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6800,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6847,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6988,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -7038,7 +7038,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R104">
         <v>13</v>
@@ -7091,7 +7091,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R105">
         <v>30</v>
@@ -7141,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7191,7 +7191,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R107">
         <v>5</v>
@@ -7244,7 +7244,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R108">
         <v>20</v>
@@ -7297,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7347,7 +7347,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R110">
         <v>10</v>
@@ -7397,7 +7397,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7441,7 +7441,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7491,7 +7491,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R113">
         <v>14</v>
@@ -7541,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7591,7 +7591,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R115">
         <v>20</v>
@@ -7641,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7691,7 +7691,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R117">
         <v>13</v>
@@ -7744,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7794,7 +7794,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R119">
         <v>19</v>
@@ -7844,7 +7844,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7894,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7944,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R122">
         <v>6</v>
@@ -7997,7 +7997,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R123">
         <v>18</v>
@@ -8047,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -8088,10 +8088,10 @@
         <v>1</v>
       </c>
       <c r="P125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q125">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -8132,10 +8132,10 @@
         <v>1</v>
       </c>
       <c r="P126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q126">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8182,7 +8182,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8229,7 +8229,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8326,7 +8326,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R130">
         <v>20</v>
@@ -8379,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8429,7 +8429,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R132">
         <v>6</v>
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8529,7 +8529,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R134">
         <v>22</v>
@@ -8582,7 +8582,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R135">
         <v>16</v>
@@ -8635,7 +8635,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R136">
         <v>13</v>
@@ -8685,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8732,7 +8732,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8782,7 +8782,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8832,7 +8832,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R140">
         <v>12</v>
@@ -8885,7 +8885,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R141">
         <v>19</v>
@@ -8938,7 +8938,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R142">
         <v>17</v>
@@ -8988,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -9038,7 +9038,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R144">
         <v>5</v>
@@ -9088,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9229,7 +9229,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9370,7 +9370,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9417,7 +9417,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9464,7 +9464,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9514,7 +9514,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R154">
         <v>19</v>
@@ -9564,7 +9564,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9611,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9664,7 +9664,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R157">
         <v>17</v>
@@ -9714,7 +9714,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9764,7 +9764,7 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R159">
         <v>7</v>
@@ -9817,7 +9817,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R160">
         <v>13</v>
@@ -9867,7 +9867,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9914,7 +9914,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9961,7 +9961,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -10008,7 +10008,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -10058,7 +10058,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R165">
         <v>11</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10158,7 +10158,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10258,7 +10258,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R169">
         <v>17</v>
@@ -10311,7 +10311,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R170">
         <v>12</v>
@@ -10364,7 +10364,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R171">
         <v>27</v>
@@ -10414,7 +10414,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10461,7 +10461,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10558,7 +10558,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R175">
         <v>14</v>
@@ -10611,7 +10611,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10661,7 +10661,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R177">
         <v>13</v>
@@ -10711,7 +10711,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10758,7 +10758,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10805,7 +10805,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10852,7 +10852,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10899,7 +10899,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10946,7 +10946,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -11043,7 +11043,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -11093,7 +11093,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R186">
         <v>28</v>
@@ -11143,7 +11143,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11190,7 +11190,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11240,7 +11240,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R189">
         <v>20</v>
@@ -11293,7 +11293,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R190">
         <v>14</v>
@@ -11343,7 +11343,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11437,7 +11437,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R193">
         <v>6</v>
@@ -11487,7 +11487,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11537,7 +11537,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R195">
         <v>5</v>
@@ -11587,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11640,7 +11640,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R197">
         <v>12</v>
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11737,7 +11737,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11784,7 +11784,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11831,7 +11831,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11878,7 +11878,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11928,7 +11928,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R203">
         <v>11</v>
@@ -11981,7 +11981,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -12031,7 +12031,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R205">
         <v>7</v>
@@ -12081,7 +12081,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -12131,7 +12131,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R207">
         <v>9</v>
@@ -12184,7 +12184,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12234,7 +12234,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R209">
         <v>14</v>
@@ -12284,7 +12284,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12331,7 +12331,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12381,7 +12381,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R212">
         <v>0</v>
@@ -12434,7 +12434,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R213">
         <v>9</v>
@@ -12487,7 +12487,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12537,7 +12537,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R215">
         <v>9</v>
@@ -12587,7 +12587,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12631,7 +12631,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12681,7 +12681,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R218">
         <v>10</v>
@@ -12731,7 +12731,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12781,7 +12781,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R220">
         <v>18</v>
@@ -12834,7 +12834,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12884,7 +12884,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R222">
         <v>12</v>
@@ -12937,7 +12937,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12987,7 +12987,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R224">
         <v>10</v>
@@ -13037,7 +13037,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -13084,7 +13084,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -13134,7 +13134,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R227">
         <v>9</v>
@@ -13184,7 +13184,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13231,7 +13231,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13278,7 +13278,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13372,7 +13372,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13419,7 +13419,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13466,7 +13466,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13516,7 +13516,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R235">
         <v>24</v>
@@ -13569,7 +13569,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13619,7 +13619,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R237">
         <v>6</v>
@@ -13669,7 +13669,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13719,7 +13719,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R239">
         <v>6</v>
@@ -13769,7 +13769,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13816,7 +13816,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13866,7 +13866,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R242">
         <v>16</v>
@@ -13919,7 +13919,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13966,7 +13966,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -14016,7 +14016,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -14066,7 +14066,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R246">
         <v>26</v>
@@ -14116,7 +14116,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -14166,7 +14166,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R248">
         <v>20</v>
@@ -14219,7 +14219,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14266,7 +14266,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14313,7 +14313,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14360,7 +14360,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14407,7 +14407,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14454,7 +14454,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14501,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14551,7 +14551,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R256">
         <v>9</v>
@@ -14601,7 +14601,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14651,7 +14651,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R258">
         <v>9</v>
@@ -14695,10 +14695,10 @@
         <v>1</v>
       </c>
       <c r="P259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q259">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14745,7 +14745,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14792,7 +14792,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14839,7 +14839,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14886,7 +14886,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14933,7 +14933,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14980,7 +14980,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -15027,7 +15027,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -15074,7 +15074,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -15121,7 +15121,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15168,7 +15168,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15215,7 +15215,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15262,7 +15262,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15309,7 +15309,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15356,7 +15356,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15397,10 +15397,10 @@
         <v>1</v>
       </c>
       <c r="P274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q274">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15447,7 +15447,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15497,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15547,7 +15547,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R277">
         <v>20</v>
@@ -15597,7 +15597,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15647,7 +15647,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R279">
         <v>16</v>
@@ -15700,7 +15700,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15750,7 +15750,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R281">
         <v>10</v>
@@ -15800,7 +15800,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15850,7 +15850,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R283">
         <v>15</v>
@@ -15903,7 +15903,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R284">
         <v>16</v>
@@ -15956,7 +15956,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R285">
         <v>17</v>
@@ -16006,7 +16006,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -16056,7 +16056,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -16106,7 +16106,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R288">
         <v>16</v>
@@ -16159,7 +16159,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16209,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R290">
         <v>13</v>
@@ -16259,7 +16259,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16309,7 +16309,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R292">
         <v>5</v>
@@ -16362,7 +16362,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R293">
         <v>15</v>
@@ -16415,7 +16415,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16465,7 +16465,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R295">
         <v>7</v>
@@ -16515,7 +16515,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16565,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R297">
         <v>5</v>
@@ -16615,7 +16615,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16665,7 +16665,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R299">
         <v>5</v>
@@ -16715,7 +16715,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16765,7 +16765,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R301">
         <v>17</v>
@@ -16818,7 +16818,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16868,7 +16868,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R303">
         <v>10</v>
@@ -16921,7 +16921,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16971,7 +16971,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R305">
         <v>19</v>
@@ -17024,7 +17024,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -17071,7 +17071,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -17124,7 +17124,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R308">
         <v>15</v>
@@ -17174,7 +17174,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17221,7 +17221,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17268,7 +17268,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17312,7 +17312,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17362,7 +17362,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R313">
         <v>0</v>
@@ -17412,7 +17412,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17459,7 +17459,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17509,7 +17509,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17556,7 +17556,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17606,7 +17606,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17656,7 +17656,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R319">
         <v>29</v>
@@ -17709,7 +17709,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17759,7 +17759,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R321">
         <v>8</v>
@@ -17809,7 +17809,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17856,7 +17856,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17903,7 +17903,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17947,7 +17947,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17994,7 +17994,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -18041,7 +18041,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -18091,7 +18091,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R328">
         <v>0</v>
@@ -18144,7 +18144,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18194,7 +18194,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R330">
         <v>12</v>
@@ -18244,7 +18244,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18291,7 +18291,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18338,7 +18338,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18385,7 +18385,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18432,7 +18432,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18482,7 +18482,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R336">
         <v>26</v>
@@ -18535,7 +18535,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18585,7 +18585,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R338">
         <v>10</v>
@@ -18638,7 +18638,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18688,7 +18688,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R340">
         <v>13</v>
@@ -18738,7 +18738,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18788,7 +18788,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R342">
         <v>21</v>
@@ -18838,7 +18838,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18885,7 +18885,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18935,7 +18935,7 @@
         <v>1</v>
       </c>
       <c r="Q345">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R345">
         <v>26</v>
@@ -18988,7 +18988,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R346">
         <v>20</v>
@@ -19041,7 +19041,7 @@
         <v>1</v>
       </c>
       <c r="Q347">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R347">
         <v>20</v>
@@ -19091,7 +19091,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -19141,7 +19141,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R349">
         <v>7</v>
@@ -19191,7 +19191,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19238,7 +19238,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19285,7 +19285,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19332,7 +19332,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19379,7 +19379,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19426,7 +19426,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19473,7 +19473,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19520,7 +19520,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19570,7 +19570,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R358">
         <v>22</v>
@@ -19620,7 +19620,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19667,7 +19667,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19714,7 +19714,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19761,7 +19761,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19808,7 +19808,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19858,7 +19858,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19908,7 +19908,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R365">
         <v>35</v>
@@ -19961,7 +19961,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -20008,7 +20008,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -20055,7 +20055,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -20102,7 +20102,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -20149,7 +20149,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20199,7 +20199,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20249,7 +20249,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R372">
         <v>9</v>
@@ -20302,7 +20302,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R373">
         <v>6</v>
@@ -20352,7 +20352,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20399,7 +20399,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20446,7 +20446,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20496,7 +20496,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R377">
         <v>29</v>
@@ -20549,7 +20549,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20599,7 +20599,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R379">
         <v>13</v>
@@ -20649,7 +20649,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20696,7 +20696,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20743,7 +20743,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20793,7 +20793,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R383">
         <v>11</v>
@@ -20843,7 +20843,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20890,7 +20890,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20937,7 +20937,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20987,7 +20987,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -21037,7 +21037,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R388">
         <v>34</v>
@@ -21087,7 +21087,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -21134,7 +21134,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21181,7 +21181,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21228,7 +21228,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21275,7 +21275,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21325,7 +21325,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R394">
         <v>13</v>
@@ -21375,7 +21375,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21422,7 +21422,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21472,7 +21472,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R397">
         <v>14</v>
@@ -21516,10 +21516,10 @@
         <v>1</v>
       </c>
       <c r="P398" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q398">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21566,7 +21566,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21613,7 +21613,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21660,7 +21660,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21707,7 +21707,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21748,10 +21748,10 @@
         <v>1</v>
       </c>
       <c r="P403" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q403">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21801,7 +21801,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R404">
         <v>11</v>
@@ -21851,7 +21851,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21898,7 +21898,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21948,7 +21948,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R407">
         <v>0</v>
@@ -22001,7 +22001,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -22051,7 +22051,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R409">
         <v>17</v>
@@ -22104,7 +22104,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22154,7 +22154,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R411">
         <v>17</v>
@@ -22207,7 +22207,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22257,7 +22257,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R413">
         <v>12</v>
@@ -22307,7 +22307,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22357,7 +22357,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R415">
         <v>26</v>
@@ -22410,7 +22410,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22460,7 +22460,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R417">
         <v>14</v>
@@ -22510,7 +22510,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22560,7 +22560,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R419">
         <v>20</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22663,7 +22663,7 @@
         <v>1</v>
       </c>
       <c r="Q421">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R421">
         <v>17</v>
@@ -22716,7 +22716,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22766,7 +22766,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R423">
         <v>13</v>
@@ -22819,7 +22819,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22869,7 +22869,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R425">
         <v>19</v>
@@ -22922,7 +22922,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22969,7 +22969,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -23016,7 +23016,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -23063,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -23110,7 +23110,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -23157,7 +23157,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23204,7 +23204,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23251,7 +23251,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23298,7 +23298,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23348,7 +23348,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R435">
         <v>18</v>
@@ -23401,7 +23401,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R436">
         <v>16</v>
@@ -23451,7 +23451,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23592,7 +23592,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23686,7 +23686,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23733,7 +23733,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23830,7 +23830,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R445">
         <v>0</v>
@@ -23883,7 +23883,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R446">
         <v>14</v>
@@ -23936,7 +23936,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23986,7 +23986,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R448">
         <v>27</v>
@@ -24036,7 +24036,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -24086,7 +24086,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24227,7 +24227,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24277,7 +24277,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R454">
         <v>6</v>
@@ -24330,7 +24330,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R455">
         <v>17</v>
@@ -24383,7 +24383,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24433,7 +24433,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R457">
         <v>17</v>
@@ -24483,7 +24483,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24527,7 +24527,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24574,7 +24574,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24668,7 +24668,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24718,7 +24718,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24768,7 +24768,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R464">
         <v>24</v>
@@ -24821,7 +24821,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R465">
         <v>19</v>
@@ -24871,7 +24871,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24918,7 +24918,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24965,7 +24965,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -25015,7 +25015,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R469">
         <v>18</v>
@@ -25068,7 +25068,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -25118,7 +25118,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R471">
         <v>5</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25215,7 +25215,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25262,7 +25262,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25309,7 +25309,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25409,7 +25409,7 @@
         <v>1</v>
       </c>
       <c r="Q477">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R477">
         <v>37</v>
@@ -25462,7 +25462,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25509,7 +25509,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25556,7 +25556,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25650,7 +25650,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25697,7 +25697,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25747,7 +25747,7 @@
         <v>1</v>
       </c>
       <c r="Q484">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R484">
         <v>4</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25847,7 +25847,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25897,7 +25897,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R487">
         <v>16</v>
@@ -25950,7 +25950,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R488">
         <v>26</v>
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -26047,7 +26047,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -26094,7 +26094,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -26144,7 +26144,7 @@
         <v>1</v>
       </c>
       <c r="Q492">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R492">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R493">
         <v>16</v>
@@ -26247,7 +26247,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26297,7 +26297,7 @@
         <v>1</v>
       </c>
       <c r="Q495">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R495">
         <v>16</v>
@@ -26347,7 +26347,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26394,7 +26394,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26441,7 +26441,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26488,7 +26488,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26535,7 +26535,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26582,7 +26582,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26629,7 +26629,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26679,7 +26679,7 @@
         <v>1</v>
       </c>
       <c r="Q503">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R503">
         <v>14</v>
@@ -26732,7 +26732,7 @@
         <v>1</v>
       </c>
       <c r="Q504">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R504">
         <v>14</v>
@@ -26785,7 +26785,7 @@
         <v>1</v>
       </c>
       <c r="Q505">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R505">
         <v>11</v>
@@ -26835,7 +26835,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26882,7 +26882,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26976,7 +26976,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -27026,7 +27026,7 @@
         <v>1</v>
       </c>
       <c r="Q510">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R510">
         <v>17</v>
@@ -27079,7 +27079,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -27129,7 +27129,7 @@
         <v>1</v>
       </c>
       <c r="Q512">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R512">
         <v>7</v>
@@ -27182,7 +27182,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -27229,7 +27229,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -27276,7 +27276,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -27323,7 +27323,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27373,7 +27373,7 @@
         <v>1</v>
       </c>
       <c r="Q517">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R517">
         <v>3</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -27520,7 +27520,7 @@
         <v>0</v>
       </c>
       <c r="Q520">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="521" spans="1:18">
@@ -27570,7 +27570,7 @@
         <v>1</v>
       </c>
       <c r="Q521">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R521">
         <v>15</v>
@@ -27617,7 +27617,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -27711,7 +27711,7 @@
         <v>0</v>
       </c>
       <c r="Q524">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="525" spans="1:18">
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="Q525">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -27805,7 +27805,7 @@
         <v>0</v>
       </c>
       <c r="Q526">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="527" spans="1:18">
@@ -27855,7 +27855,7 @@
         <v>1</v>
       </c>
       <c r="Q527">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R527">
         <v>3</v>
@@ -27908,7 +27908,7 @@
         <v>0</v>
       </c>
       <c r="Q528">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="529" spans="1:18">
@@ -27958,7 +27958,7 @@
         <v>1</v>
       </c>
       <c r="Q529">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R529">
         <v>20</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="Q530">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="531" spans="1:18">
@@ -28061,7 +28061,7 @@
         <v>1</v>
       </c>
       <c r="Q531">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R531">
         <v>4</v>
@@ -28111,7 +28111,7 @@
         <v>0</v>
       </c>
       <c r="Q532">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="533" spans="1:18">
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="Q533">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="534" spans="1:18">
@@ -28202,7 +28202,7 @@
         <v>0</v>
       </c>
       <c r="Q534">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="535" spans="1:18">
@@ -28249,7 +28249,7 @@
         <v>0</v>
       </c>
       <c r="Q535">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="536" spans="1:18">
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="Q536">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="537" spans="1:18">
@@ -28343,7 +28343,7 @@
         <v>0</v>
       </c>
       <c r="Q537">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="538" spans="1:18">
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="Q538">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="539" spans="1:18">
@@ -28440,7 +28440,7 @@
         <v>1</v>
       </c>
       <c r="Q539">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R539">
         <v>4</v>
@@ -28493,7 +28493,7 @@
         <v>1</v>
       </c>
       <c r="Q540">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="R540">
         <v>6</v>
@@ -28546,7 +28546,7 @@
         <v>0</v>
       </c>
       <c r="Q541">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="542" spans="1:18">
@@ -28596,7 +28596,7 @@
         <v>1</v>
       </c>
       <c r="Q542">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="R542">
         <v>14</v>
@@ -28652,7 +28652,7 @@
         <v>1</v>
       </c>
       <c r="Q543">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="R543">
         <v>3</v>
@@ -28696,10 +28696,10 @@
         <v>1</v>
       </c>
       <c r="P544" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q544">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="545" spans="1:18">
@@ -28740,10 +28740,10 @@
         <v>1</v>
       </c>
       <c r="P545" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q545">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="546" spans="1:18">
@@ -28793,7 +28793,7 @@
         <v>1</v>
       </c>
       <c r="Q546">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="R546">
         <v>15</v>
@@ -28843,7 +28843,7 @@
         <v>0</v>
       </c>
       <c r="Q547">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="548" spans="1:18">
@@ -28893,7 +28893,7 @@
         <v>1</v>
       </c>
       <c r="Q548">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="R548">
         <v>12</v>
@@ -28943,7 +28943,7 @@
         <v>0</v>
       </c>
       <c r="Q549">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="550" spans="1:18">
@@ -28990,7 +28990,7 @@
         <v>0</v>
       </c>
       <c r="Q550">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="551" spans="1:18">
@@ -29037,7 +29037,7 @@
         <v>0</v>
       </c>
       <c r="Q551">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="552" spans="1:18">
@@ -29087,7 +29087,7 @@
         <v>1</v>
       </c>
       <c r="Q552">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="R552">
         <v>1</v>
@@ -29140,7 +29140,7 @@
         <v>1</v>
       </c>
       <c r="Q553">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="R553">
         <v>10</v>
@@ -29193,7 +29193,7 @@
         <v>0</v>
       </c>
       <c r="Q554">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="555" spans="1:18">
@@ -29240,7 +29240,7 @@
         <v>0</v>
       </c>
       <c r="Q555">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="556" spans="1:18">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="Q556">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="557" spans="1:18">
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="Q557">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="558" spans="1:18">
@@ -29384,7 +29384,7 @@
         <v>1</v>
       </c>
       <c r="Q558">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="R558">
         <v>11</v>
@@ -29437,7 +29437,7 @@
         <v>0</v>
       </c>
       <c r="Q559">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="560" spans="1:18">
@@ -29484,7 +29484,7 @@
         <v>0</v>
       </c>
       <c r="Q560">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="561" spans="1:18">
@@ -29531,7 +29531,7 @@
         <v>0</v>
       </c>
       <c r="Q561">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="562" spans="1:18">
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Q562">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="563" spans="1:18">
@@ -29625,7 +29625,7 @@
         <v>0</v>
       </c>
       <c r="Q563">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="564" spans="1:18">
@@ -29672,7 +29672,7 @@
         <v>0</v>
       </c>
       <c r="Q564">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="565" spans="1:18">
@@ -29722,7 +29722,7 @@
         <v>1</v>
       </c>
       <c r="Q565">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="R565">
         <v>11</v>
@@ -29775,7 +29775,7 @@
         <v>0</v>
       </c>
       <c r="Q566">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="567" spans="1:18">
@@ -29822,7 +29822,7 @@
         <v>0</v>
       </c>
       <c r="Q567">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="568" spans="1:18">
@@ -29869,7 +29869,7 @@
         <v>0</v>
       </c>
       <c r="Q568">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="569" spans="1:18">
@@ -29916,7 +29916,7 @@
         <v>0</v>
       </c>
       <c r="Q569">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="570" spans="1:18">
@@ -29966,7 +29966,7 @@
         <v>1</v>
       </c>
       <c r="Q570">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="R570">
         <v>14</v>
@@ -30019,7 +30019,7 @@
         <v>1</v>
       </c>
       <c r="Q571">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="R571">
         <v>12</v>
@@ -30069,7 +30069,7 @@
         <v>0</v>
       </c>
       <c r="Q572">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="573" spans="1:18">
@@ -30116,7 +30116,7 @@
         <v>0</v>
       </c>
       <c r="Q573">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="574" spans="1:18">
@@ -30163,7 +30163,7 @@
         <v>0</v>
       </c>
       <c r="Q574">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="575" spans="1:18">
@@ -30210,7 +30210,7 @@
         <v>0</v>
       </c>
       <c r="Q575">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="576" spans="1:18">
@@ -30257,7 +30257,7 @@
         <v>0</v>
       </c>
       <c r="Q576">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="577" spans="1:18">
@@ -30304,7 +30304,7 @@
         <v>0</v>
       </c>
       <c r="Q577">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="578" spans="1:18">
@@ -30351,7 +30351,7 @@
         <v>0</v>
       </c>
       <c r="Q578">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="579" spans="1:18">
@@ -30398,7 +30398,7 @@
         <v>0</v>
       </c>
       <c r="Q579">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="580" spans="1:18">
@@ -30448,7 +30448,7 @@
         <v>1</v>
       </c>
       <c r="Q580">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="R580">
         <v>20</v>
@@ -30501,7 +30501,7 @@
         <v>0</v>
       </c>
       <c r="Q581">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="582" spans="1:18">
@@ -30551,7 +30551,7 @@
         <v>1</v>
       </c>
       <c r="Q582">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="R582">
         <v>18</v>
@@ -30601,7 +30601,7 @@
         <v>0</v>
       </c>
       <c r="Q583">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="584" spans="1:18">
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="Q584">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="585" spans="1:18">
@@ -30698,7 +30698,7 @@
         <v>0</v>
       </c>
       <c r="Q585">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="586" spans="1:18">
@@ -30748,7 +30748,7 @@
         <v>1</v>
       </c>
       <c r="Q586">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="R586">
         <v>34</v>
@@ -30801,7 +30801,7 @@
         <v>1</v>
       </c>
       <c r="Q587">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="R587">
         <v>8</v>
@@ -30851,7 +30851,7 @@
         <v>0</v>
       </c>
       <c r="Q588">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="589" spans="1:18">
@@ -30901,7 +30901,7 @@
         <v>1</v>
       </c>
       <c r="Q589">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="R589">
         <v>17</v>
@@ -30951,7 +30951,7 @@
         <v>0</v>
       </c>
       <c r="Q590">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="591" spans="1:18">
@@ -31001,7 +31001,7 @@
         <v>1</v>
       </c>
       <c r="Q591">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="R591">
         <v>18</v>
@@ -31051,7 +31051,7 @@
         <v>0</v>
       </c>
       <c r="Q592">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="593" spans="1:18">
@@ -31101,7 +31101,7 @@
         <v>1</v>
       </c>
       <c r="Q593">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="R593">
         <v>14</v>
@@ -31154,7 +31154,7 @@
         <v>0</v>
       </c>
       <c r="Q594">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="595" spans="1:18">
@@ -31204,7 +31204,7 @@
         <v>1</v>
       </c>
       <c r="Q595">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="R595">
         <v>18</v>
@@ -31251,7 +31251,7 @@
         <v>0</v>
       </c>
       <c r="Q596">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="597" spans="1:18">
@@ -31301,7 +31301,7 @@
         <v>1</v>
       </c>
       <c r="Q597">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="R597">
         <v>18</v>
@@ -31351,7 +31351,7 @@
         <v>0</v>
       </c>
       <c r="Q598">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="599" spans="1:18">
@@ -31398,7 +31398,7 @@
         <v>0</v>
       </c>
       <c r="Q599">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="600" spans="1:18">
@@ -31445,7 +31445,7 @@
         <v>0</v>
       </c>
       <c r="Q600">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="601" spans="1:18">
@@ -31495,7 +31495,7 @@
         <v>1</v>
       </c>
       <c r="Q601">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="R601">
         <v>18</v>
@@ -31545,7 +31545,7 @@
         <v>0</v>
       </c>
       <c r="Q602">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="603" spans="1:18">
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
       <c r="Q603">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="604" spans="1:18">
@@ -31642,7 +31642,7 @@
         <v>1</v>
       </c>
       <c r="Q604">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="R604">
         <v>12</v>
@@ -31692,7 +31692,7 @@
         <v>0</v>
       </c>
       <c r="Q605">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="606" spans="1:18">
@@ -31742,7 +31742,7 @@
         <v>1</v>
       </c>
       <c r="Q606">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="R606">
         <v>15</v>
@@ -31798,7 +31798,7 @@
         <v>1</v>
       </c>
       <c r="Q607">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="R607">
         <v>4</v>
@@ -31842,10 +31842,10 @@
         <v>1</v>
       </c>
       <c r="P608" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q608">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="609" spans="1:17">
@@ -31886,7 +31886,7 @@
         <v>0</v>
       </c>
       <c r="Q609">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
